--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/Bypakke Vestfoldbyene/Buss CSV_text/Vestfold/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A9BD50-35EB-43D2-AA48-802CE5A3F6DA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1441D6D-A9E3-4F3A-876F-77406445ED54}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{9236CE36-C5D8-499A-88C4-7BBA432C7796}"/>
+    <workbookView xWindow="29280" yWindow="480" windowWidth="29040" windowHeight="14100" xr2:uid="{9236CE36-C5D8-499A-88C4-7BBA432C7796}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,6 +436,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1441D6D-A9E3-4F3A-876F-77406445ED54}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03D2AC4-2956-40CB-8AD5-3BC191D7FFB0}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="480" windowWidth="29040" windowHeight="14100" xr2:uid="{9236CE36-C5D8-499A-88C4-7BBA432C7796}"/>
+    <workbookView xWindow="46425" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{9236CE36-C5D8-499A-88C4-7BBA432C7796}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>5,6-27</t>
+  </si>
+  <si>
+    <t>Jarlsberg travbane</t>
+  </si>
+  <si>
+    <t>79403V1175511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tønsberg </t>
   </si>
 </sst>
 </file>
@@ -429,18 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F9B80-7BC6-41D7-8A30-D6960236F291}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -495,6 +504,35 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>658</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03D2AC4-2956-40CB-8AD5-3BC191D7FFB0}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4672601-2233-48CE-B454-2DE788C6DB94}"/>
   <bookViews>
     <workbookView xWindow="46425" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{9236CE36-C5D8-499A-88C4-7BBA432C7796}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Type</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tønsberg </t>
+  </si>
+  <si>
+    <t>trafficData1</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4672601-2233-48CE-B454-2DE788C6DB94}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{BCC56816-F572-46D9-891A-93C567BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E545DE-E8C8-4A91-B48C-AA98DD56F341}"/>
   <bookViews>
     <workbookView xWindow="46425" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{9236CE36-C5D8-499A-88C4-7BBA432C7796}"/>
   </bookViews>
@@ -450,6 +450,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
